--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H2">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I2">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J2">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.51250766666667</v>
+        <v>34.32490066666667</v>
       </c>
       <c r="N2">
-        <v>58.53752300000001</v>
+        <v>102.974702</v>
       </c>
       <c r="O2">
-        <v>0.6525249111981246</v>
+        <v>0.7676290729251072</v>
       </c>
       <c r="P2">
-        <v>0.6525249111981246</v>
+        <v>0.7676290729251072</v>
       </c>
       <c r="Q2">
-        <v>1.614692530262778</v>
+        <v>1.782766690825334</v>
       </c>
       <c r="R2">
-        <v>14.532232772365</v>
+        <v>16.044900217428</v>
       </c>
       <c r="S2">
-        <v>0.1140019633371808</v>
+        <v>0.09003039194590128</v>
       </c>
       <c r="T2">
-        <v>0.1140019633371808</v>
+        <v>0.09003039194590128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H3">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I3">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J3">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.765320666666666</v>
+        <v>9.765320666666668</v>
       </c>
       <c r="N3">
         <v>29.295962</v>
       </c>
       <c r="O3">
-        <v>0.3265656628913668</v>
+        <v>0.2183879313436534</v>
       </c>
       <c r="P3">
-        <v>0.3265656628913667</v>
+        <v>0.2183879313436534</v>
       </c>
       <c r="Q3">
-        <v>0.8080965607011112</v>
+        <v>0.5071912247853334</v>
       </c>
       <c r="R3">
-        <v>7.27286904631</v>
+        <v>4.564721023068</v>
       </c>
       <c r="S3">
-        <v>0.05705395470613681</v>
+        <v>0.02561334861927767</v>
       </c>
       <c r="T3">
-        <v>0.0570539547061368</v>
+        <v>0.02561334861927768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H4">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I4">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J4">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.875769</v>
       </c>
       <c r="O4">
-        <v>0.02090942591050863</v>
+        <v>0.01398299573123946</v>
       </c>
       <c r="P4">
-        <v>0.02090942591050863</v>
+        <v>0.01398299573123946</v>
       </c>
       <c r="Q4">
-        <v>0.05174100367722223</v>
+        <v>0.03247456344066667</v>
       </c>
       <c r="R4">
-        <v>0.4656690330950001</v>
+        <v>0.292271070966</v>
       </c>
       <c r="S4">
-        <v>0.003653064526953426</v>
+        <v>0.001639977732297504</v>
       </c>
       <c r="T4">
-        <v>0.003653064526953426</v>
+        <v>0.001639977732297504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.7273350000000001</v>
       </c>
       <c r="I5">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J5">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.51250766666667</v>
+        <v>34.32490066666667</v>
       </c>
       <c r="N5">
-        <v>58.53752300000001</v>
+        <v>102.974702</v>
       </c>
       <c r="O5">
-        <v>0.6525249111981246</v>
+        <v>0.7676290729251072</v>
       </c>
       <c r="P5">
-        <v>0.6525249111981246</v>
+        <v>0.7676290729251072</v>
       </c>
       <c r="Q5">
-        <v>4.730709921245</v>
+        <v>8.321900542130003</v>
       </c>
       <c r="R5">
-        <v>42.57638929120501</v>
+        <v>74.89710487917002</v>
       </c>
       <c r="S5">
-        <v>0.3340018046115824</v>
+        <v>0.4202591238654557</v>
       </c>
       <c r="T5">
-        <v>0.3340018046115824</v>
+        <v>0.4202591238654557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7273350000000001</v>
       </c>
       <c r="I6">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J6">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.765320666666666</v>
+        <v>9.765320666666668</v>
       </c>
       <c r="N6">
         <v>29.295962</v>
       </c>
       <c r="O6">
-        <v>0.3265656628913668</v>
+        <v>0.2183879313436534</v>
       </c>
       <c r="P6">
-        <v>0.3265656628913667</v>
+        <v>0.2183879313436534</v>
       </c>
       <c r="Q6">
         <v>2.36755316903</v>
       </c>
       <c r="R6">
-        <v>21.30797852127</v>
+        <v>21.30797852127001</v>
       </c>
       <c r="S6">
-        <v>0.1671561021779542</v>
+        <v>0.1195623302014089</v>
       </c>
       <c r="T6">
-        <v>0.1671561021779541</v>
+        <v>0.1195623302014089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7273350000000001</v>
       </c>
       <c r="I7">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J7">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.875769</v>
       </c>
       <c r="O7">
-        <v>0.02090942591050863</v>
+        <v>0.01398299573123946</v>
       </c>
       <c r="P7">
-        <v>0.02090942591050863</v>
+        <v>0.01398299573123946</v>
       </c>
       <c r="Q7">
         <v>0.151590271735</v>
@@ -880,10 +880,10 @@
         <v>1.364312445615</v>
       </c>
       <c r="S7">
-        <v>0.01070271167836164</v>
+        <v>0.007655366038485665</v>
       </c>
       <c r="T7">
-        <v>0.01070271167836164</v>
+        <v>0.007655366038485665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.445373</v>
       </c>
       <c r="I8">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="J8">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.51250766666667</v>
+        <v>34.32490066666667</v>
       </c>
       <c r="N8">
-        <v>58.53752300000001</v>
+        <v>102.974702</v>
       </c>
       <c r="O8">
-        <v>0.6525249111981246</v>
+        <v>0.7676290729251072</v>
       </c>
       <c r="P8">
-        <v>0.6525249111981246</v>
+        <v>0.7676290729251072</v>
       </c>
       <c r="Q8">
-        <v>2.896781359008778</v>
+        <v>5.095794661538446</v>
       </c>
       <c r="R8">
-        <v>26.071032231079</v>
+        <v>45.862151953846</v>
       </c>
       <c r="S8">
-        <v>0.2045211432493614</v>
+        <v>0.2573395571137503</v>
       </c>
       <c r="T8">
-        <v>0.2045211432493614</v>
+        <v>0.2573395571137503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.445373</v>
       </c>
       <c r="I9">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="J9">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.765320666666666</v>
+        <v>9.765320666666668</v>
       </c>
       <c r="N9">
         <v>29.295962</v>
       </c>
       <c r="O9">
-        <v>0.3265656628913668</v>
+        <v>0.2183879313436534</v>
       </c>
       <c r="P9">
-        <v>0.3265656628913667</v>
+        <v>0.2183879313436534</v>
       </c>
       <c r="Q9">
         <v>1.449736720425111</v>
@@ -1004,10 +1004,10 @@
         <v>13.047630483826</v>
       </c>
       <c r="S9">
-        <v>0.1023556060072758</v>
+        <v>0.07321225252296684</v>
       </c>
       <c r="T9">
-        <v>0.1023556060072758</v>
+        <v>0.07321225252296686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.445373</v>
       </c>
       <c r="I10">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="J10">
-        <v>0.3134303989618308</v>
+        <v>0.3352394615971734</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>1.875769</v>
       </c>
       <c r="O10">
-        <v>0.02090942591050863</v>
+        <v>0.01398299573123946</v>
       </c>
       <c r="P10">
-        <v>0.02090942591050863</v>
+        <v>0.01398299573123946</v>
       </c>
       <c r="Q10">
-        <v>0.0928240963152222</v>
+        <v>0.09282409631522223</v>
       </c>
       <c r="R10">
-        <v>0.8354168668369999</v>
+        <v>0.835416866837</v>
       </c>
       <c r="S10">
-        <v>0.006553649705193561</v>
+        <v>0.004687651960456289</v>
       </c>
       <c r="T10">
-        <v>0.006553649705193561</v>
+        <v>0.00468765196045629</v>
       </c>
     </row>
   </sheetData>
